--- a/vqarad/output_train.xlsx
+++ b/vqarad/output_train.xlsx
@@ -88,7 +88,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -102,6 +102,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -124,38 +131,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -488,7 +488,7 @@
     <col min="8" max="8" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -564,7 +564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>

--- a/vqarad/output_train.xlsx
+++ b/vqarad/output_train.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_train" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,144 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>model3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[3.7339284]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[24.7619]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[3.5278184]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[23.7037]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>model3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[3.7339284, 3.288472]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[24.7619, 24.4444]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[3.5278184, 3.15689]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[23.7037, 32.5926]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>model3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[3.7339284, 3.288472, 2.9026778]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[24.7619, 24.4444, 29.5238]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[3.5278184, 3.15689, 3.2530377]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[23.7037, 32.5926, 37.7778]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/vqarad/output_train.xlsx
+++ b/vqarad/output_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,6 +618,52 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>model3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[4.019127, 3.2475157, 3.0666142, 2.838623, 2.6781063, 2.357983, 1.6188793, 0.8334522, 0.2839456, 0.11782013]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[24.6684, 28.1167, 27.0557, 29.443, 28.6472, 43.7666, 62.5995, 84.6154, 96.817, 99.4695]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[3.9852543, 4.3988194, 3.9112568, 3.8325222, 3.4229393, 3.7813537, 3.2223568, 3.4901857, 3.5637605, 3.6675394]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[25.1232, 16.2562, 24.1379, 27.5862, 28.0788, 33.9901, 36.9458, 40.3941, 38.9163, 35.9606]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/vqarad/output_train.xlsx
+++ b/vqarad/output_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,6 +664,52 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>model3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[3.8483086, 3.2278256, 3.0091355, 2.713696, 2.3318553, 1.816061, 1.2915121, 0.8403977, 0.55760056, 0.4102072, 0.3374452, 0.2490568, 0.1860351, 0.14309406, 0.13247165, 0.06994481, 0.05699493, 0.06891857, 0.06050118, 0.054538388, 0.031914223, 0.044401992, 0.0636297, 0.052720007, 0.060145773, 0.09848736, 0.027540397, 0.009306963, 0.005101551, 0.022999052, 0.023085453, 0.0055747572, 0.0035592255, 0.0031005868, 0.002711107, 0.008328518, 0.09656579, 0.12564784, 0.074278414, 0.06808147, 0.081583194, 0.03290989, 0.010997015, 0.015809301, 0.014731074, 0.0040891278, 0.0031176906, 0.0026704825, 0.0024564308, 0.0023890745]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[29.1733, 30.6836, 37.5199, 46.4229, 51.7488, 60.4134, 72.814, 83.5453, 87.2019, 90.3816, 90.0636, 93.4817, 95.0715, 96.5819, 96.5024, 98.4102, 98.8871, 98.0127, 98.8871, 99.1256, 99.4436, 99.0461, 98.8076, 98.8871, 98.5692, 98.0127, 99.682, 99.9205, 100.0, 99.5231, 99.7615, 100.0, 100.0, 100.0, 100.0, 99.9205, 98.0922, 97.2178, 98.4897, 98.6486, 98.4102, 99.5231, 99.841, 99.682, 99.6025, 100.0, 100.0, 100.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[3.5265436, 3.7201226, 3.5682988, 3.4794645, 3.3389804, 3.087005, 3.0949075, 3.0256357, 3.0335958, 3.1288095, 3.2662818, 3.333309, 3.4323947, 3.2756596, 3.2138467, 3.694815, 3.2964933, 3.31206, 3.3583894, 3.6940913, 3.8453596, 3.8018236, 3.5052447, 3.6367188, 3.494725, 3.5865123, 3.540229, 3.9091418, 3.9601834, 3.9801815, 3.6293886, 3.9784937, 4.0298743, 4.0878105, 4.1263046, 4.142235, 3.7375069, 4.0755696, 3.703223, 3.69865, 3.6830225, 4.0040054, 4.0292883, 4.183227, 4.141697, 4.094526, 4.120474, 4.136314, 4.1499357, 4.159642]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[26.3704, 28.5926, 36.2963, 40.0, 38.8148, 42.2222, 44.5926, 44.1481, 46.8148, 48.8889, 45.9259, 47.8519, 47.5556, 48.8889, 48.2963, 48.2963, 48.4444, 49.037, 49.4815, 49.3333, 48.7407, 49.4815, 47.1111, 48.1481, 46.6667, 47.4074, 47.4074, 47.8519, 48.1481, 47.5556, 49.037, 49.6296, 50.3704, 50.0741, 50.0741, 49.7778, 45.037, 46.5185, 46.963, 48.0, 48.2963, 48.8889, 49.6296, 48.4444, 48.7407, 48.8889, 48.8889, 49.037, 49.1852, 48.8889]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/vqarad/output_train.xlsx
+++ b/vqarad/output_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,98 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>model3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>31</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[3.8390481, 3.2081928, 3.0015686, 2.7545004, 2.414529, 2.0291638, 1.5516318, 1.0951053, 0.76043564, 0.50604004, 0.3735459, 0.27803984, 0.22784854, 0.19330983, 0.17800254, 0.1390854, 0.119193435, 0.09727924, 0.12205509, 0.09741595, 0.09476556, 0.065227345, 0.056227498, 0.05507374, 0.03948445, 0.10352285, 0.07098196, 0.04747191, 0.034411054, 0.030271813, 0.03686002]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[28.3784, 32.7504, 39.1892, 44.1971, 50.4769, 55.6439, 64.3084, 75.9936, 82.4324, 86.9634, 89.9046, 92.7663, 94.1176, 94.9921, 95.0715, 95.7075, 96.8998, 96.9793, 96.2639, 97.2973, 97.3768, 98.1717, 98.4102, 98.7281, 98.8076, 97.2178, 97.9332, 99.0461, 99.2051, 99.0461, 99.0461]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[3.5173008, 3.6953397, 3.5735905, 3.4644115, 3.5016415, 3.3211765, 3.222635, 3.3093185, 3.1934924, 3.4128094, 3.1434703, 3.7453413, 3.418308, 3.4271119, 3.6664314, 3.4188912, 3.682681, 3.662844, 3.9055996, 3.7940643, 3.5818276, 3.836538, 3.7434583, 3.8207173, 4.333821, 3.6739864, 3.5634208, 3.6934693, 3.7809849, 3.9212086, 4.074976]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[28.8889, 29.4815, 35.7037, 37.9259, 40.1481, 42.3704, 42.0741, 43.8519, 43.5556, 45.4815, 44.7407, 46.5185, 44.8889, 45.6296, 44.5926, 46.6667, 45.037, 46.963, 46.3704, 46.2222, 45.6296, 45.4815, 45.7778, 45.7778, 46.0741, 45.9259, 45.3333, 46.5185, 46.6667, 48.0, 47.2593]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>model3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>resnet</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[4.000696, 3.2610495, 3.0605564, 2.8628163, 2.5299523, 2.1328483, 1.65388, 1.1496254, 0.7692744, 0.51756036, 0.3987016, 0.32856354, 0.3077019]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[27.504, 29.2528, 35.2146, 41.4944, 48.2512, 53.9746, 62.3211, 74.0859, 82.4324, 86.9634, 89.8251, 90.6995, 90.461]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[3.6421366, 3.6560383, 3.6354985, 3.5957704, 3.41445, 3.2310784, 3.1264143, 3.2595103, 3.1025639, 3.165422, 3.1754591, 3.3491702, 3.5120091]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[27.2593, 30.8148, 34.5185, 38.0741, 39.7037, 39.8519, 40.5926, 42.5185, 43.2593, 45.3333, 45.3333, 44.8889, 45.1852]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/vqarad/output_train.xlsx
+++ b/vqarad/output_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,6 +802,282 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>model3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>47</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[3.8167155, 3.2066364, 3.0080945, 2.7632282, 2.4282734, 2.0946858, 1.72428, 1.320307, 0.9767078, 0.65011007, 0.47459581, 0.36447227, 0.33605725, 0.31584403, 0.25694963, 0.23723948, 0.22924387, 0.20997791, 0.18444018, 0.18813442, 0.17059281, 0.2026439, 0.18031795, 0.16915795, 0.19413586, 0.13348533, 0.16877045, 0.17124546, 0.14006805, 0.11711521, 0.14996938, 0.09853886, 0.08685149, 0.10847714, 0.12229207, 0.100808956, 0.13523582, 0.12165032, 0.18228441, 0.12972137, 0.13831344, 0.13157248, 0.12112324, 0.12470406, 0.078614935, 0.061658498, 0.058161367]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[27.2655, 32.3529, 41.097, 45.0715, 51.5898, 54.531, 59.9364, 70.1113, 78.1399, 86.089, 88.4738, 91.256, 89.8251, 90.62, 92.6868, 91.4944, 92.6868, 93.4022, 93.7202, 92.8458, 93.8792, 93.6407, 93.6407, 93.5612, 93.0843, 94.9921, 94.2766, 95.0715, 95.3895, 95.787, 95.8665, 96.1049, 97.0588, 96.5024, 96.1049, 96.7409, 95.151, 96.1049, 94.1176, 95.7075, 95.0715, 95.151, 95.3895, 95.5485, 97.4563, 97.6153, 97.5358]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[3.4762707, 3.67421, 3.6752384, 3.4316964, 3.3475378, 3.2685876, 3.1041381, 3.2270343, 3.133204, 3.2822907, 3.304079, 3.2976148, 3.2496083, 3.3776963, 3.4697778, 3.593692, 3.6681755, 3.8080256, 3.5935447, 3.684799, 3.8414693, 3.609362, 3.7487733, 3.796995, 3.6915288, 4.146636, 3.688904, 3.7096038, 3.888158, 3.7654963, 3.8561823, 3.9679973, 4.3226895, 3.7057784, 3.8377416, 3.8734837, 4.0210533, 4.435923, 3.9061413, 3.9609747, 3.804275, 3.940712, 3.6985395, 3.8590531, 3.9001236, 3.955741, 3.9936142]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[29.037, 31.4074, 36.2963, 40.5926, 42.5185, 42.6667, 41.9259, 44.7407, 45.9259, 46.0741, 45.037, 45.037, 45.7778, 46.6667, 45.7778, 45.1852, 46.0741, 46.6667, 47.1111, 47.5556, 45.6296, 44.2963, 47.1111, 44.5926, 46.5185, 45.4815, 45.037, 46.0741, 45.7778, 46.2222, 45.7778, 46.3704, 46.963, 45.3333, 45.4815, 45.6296, 46.3704, 43.8519, 46.6667, 46.6667, 47.1111, 45.6296, 46.8148, 47.2593, 47.4074, 47.4074, 47.1111]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>model3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>63</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[3.8187149, 3.2301595, 3.0472634, 2.8108087, 2.5047908, 2.1835177, 1.8535223, 1.4674935, 1.1006677, 0.7540048, 0.53951097, 0.41442692, 0.35628083, 0.32294795, 0.2944457, 0.25365075, 0.25453204, 0.2371416, 0.20391198, 0.20257309, 0.18234944, 0.17819607, 0.16862777, 0.2103765, 0.17122974, 0.1443198, 0.1323165, 0.12964123, 0.10698113, 0.0928179, 0.0791452, 0.07560053, 0.116482094, 0.122804664, 0.11932505, 0.12833063, 0.09791508, 0.086218745, 0.09026363, 0.12185458, 0.10610098, 0.06411943, 0.25472263, 0.20814016, 0.14829026, 0.12593049, 0.11837137, 0.1179631, 0.096408285, 0.074196175, 0.085857555, 0.07360082, 0.08231486, 0.053614326, 0.035313804, 0.031062488, 0.027112843, 0.024596963, 0.02167718, 0.021574229, 0.018025037, 0.017427975, 0.016012955]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[27.027, 30.2067, 38.5533, 44.1971, 49.9205, 53.7361, 59.062, 65.8188, 75.5167, 83.2273, 87.0429, 89.5072, 89.2687, 90.62, 90.938, 91.4149, 91.8919, 91.8124, 93.4022, 93.0843, 93.0843, 93.6407, 93.6407, 93.4817, 94.9126, 95.151, 95.31, 95.7075, 95.9459, 96.7409, 97.1383, 97.0588, 95.8665, 96.3434, 96.1049, 96.1844, 96.5024, 97.2973, 96.5819, 96.4229, 96.6614, 97.6948, 92.2893, 92.6868, 94.1176, 94.1176, 95.31, 95.469, 96.1844, 96.7409, 96.2639, 97.2973, 96.7409, 98.2512, 98.8076, 99.1256, 98.9666, 99.0461, 99.3641, 99.4436, 99.6025, 99.7615, 99.841]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[3.5443676, 3.6686, 3.7305973, 3.5026593, 3.349511, 3.3256502, 3.216898, 3.3345263, 3.1152244, 3.2830977, 3.18836, 3.4520838, 3.4194906, 3.5835423, 3.5951154, 3.5473433, 3.8067667, 3.8154206, 3.6794164, 4.018627, 3.7556734, 3.8149505, 3.921025, 3.8705683, 3.6888752, 3.907465, 4.038166, 3.7314508, 4.195952, 3.9177704, 4.328763, 4.409005, 4.1695824, 3.9224238, 4.0892353, 4.0427575, 4.119997, 4.2823896, 4.093203, 4.076908, 4.125148, 4.1160727, 3.837374, 4.0310597, 4.2405267, 4.2498026, 4.151238, 4.3533297, 4.353177, 4.2096124, 4.399576, 4.3339972, 4.340017, 4.3297005, 4.3791223, 4.4058037, 4.4354296, 4.459463, 4.493482, 4.511709, 4.5348406, 4.554585, 4.5791373]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[29.1852, 34.2222, 36.7407, 38.963, 39.4074, 41.7778, 41.037, 43.5556, 44.4444, 44.8889, 45.3333, 45.1852, 43.4074, 45.037, 44.2963, 45.3333, 45.6296, 45.037, 45.037, 45.4815, 45.1852, 45.3333, 46.0741, 44.4444, 45.4815, 44.0, 43.7037, 44.2963, 44.0, 43.7037, 44.0, 43.1111, 45.4815, 43.5556, 43.4074, 45.6296, 44.5926, 43.4074, 42.3704, 45.1852, 43.1111, 45.3333, 44.8889, 44.4444, 45.3333, 44.8889, 43.7037, 44.4444, 45.7778, 44.0, 44.4444, 44.4444, 43.7037, 45.4815, 44.8889, 45.1852, 45.037, 45.6296, 45.4815, 45.1852, 45.037, 45.037, 45.037]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>model3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>98</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[3.7216396, 3.20304, 2.8691206, 2.4386938, 1.8909496, 1.3444345, 0.9300481, 0.66474587, 0.52436924, 0.4798368, 0.39450893, 0.3418414, 0.31461233, 0.28742012, 0.26507732, 0.23927967, 0.22704004, 0.20715345, 0.18759494, 0.18591459, 0.17254528, 0.1650985, 0.1389857, 0.11751061, 0.11824206, 0.12972544, 0.08111336, 0.10453886, 0.0755064, 0.05754598, 0.0442144, 0.067151636, 0.08674122, 0.07931839, 0.07296804, 0.03757853, 0.046663124, 0.040973254, 0.037127536, 0.03304566, 0.07300901, 0.09393216, 0.049476236, 0.03200357, 0.025585245, 0.026035858, 0.017195495, 0.040788945, 0.040982783, 0.050454363, 0.0304411, 0.016181145, 0.03624628, 0.017462112, 0.028418029, 0.03127114, 0.009054685, 0.02464734, 0.06284207, 0.058328174, 0.061941516, 0.02004898, 0.027290741, 0.0176308, 0.014038978, 0.0060559656, 0.0048965667, 0.0046571367, 0.008929196, 0.023700569, 0.06141789, 0.021100411, 0.04615594, 0.05375312, 0.033936244, 0.032919344, 0.0073427097, 0.001310516, 0.01563766, 0.005026935, 0.01876536, 0.080571376, 0.062000427, 0.038739517, 0.019662093, 0.0046265847, 0.013208963, 0.006232225, 0.030633733, 0.014846912, 0.007049809, 0.0036396177, 0.0030887492, 0.0016077837, 0.0016229249, 0.0016086416, 0.0011830247, 0.0009364511]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[27.8721, 33.6164, 41.4585, 48.0519, 57.3427, 69.1808, 77.8222, 83.3167, 85.4645, 85.8641, 87.7123, 89.1109, 90.3097, 90.5095, 91.0589, 92.2078, 92.1079, 92.5574, 93.6563, 94.2557, 94.5554, 95.1049, 95.3546, 96.0539, 96.4036, 95.954, 97.2527, 96.953, 97.7023, 98.1019, 98.5514, 97.5524, 97.8022, 97.6024, 98.2018, 98.6014, 98.5514, 99.0509, 98.8012, 99.0509, 98.0519, 97.5524, 98.9011, 99.0509, 99.2507, 99.3007, 99.5504, 99.0509, 99.001, 98.8511, 99.1009, 99.6503, 99.2008, 99.7003, 98.8511, 99.2008, 99.8501, 99.4006, 98.5015, 98.6014, 98.5514, 99.4505, 99.2008, 99.4006, 99.6004, 99.9001, 99.9001, 99.95, 99.8501, 99.4505, 98.8511, 99.6004, 98.9011, 98.8511, 99.0509, 99.2507, 99.9001, 100.0, 99.7003, 99.95, 99.7502, 98.1019, 98.6014, 99.2507, 99.5504, 99.9001, 99.6503, 99.9001, 99.3506, 99.7003, 99.8002, 99.9001, 99.95, 100.0, 100.0, 99.95, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[2.8813913, 2.834542, 2.9681213, 3.2857227, 3.2827656, 3.015974, 2.944618, 2.9912412, 3.5780194, 3.311507, 4.274054, 3.9900882, 3.4273825, 3.512146, 4.244395, 4.783936, 3.799694, 3.8837988, 3.7496204, 4.118328, 3.8478177, 4.3930573, 3.7955694, 4.319675, 3.3978722, 3.8621216, 4.6136136, 3.5513859, 4.3875685, 4.1389613, 4.7399487, 4.0499363, 3.5374534, 3.6660006, 3.886624, 3.7437057, 3.306321, 4.2216034, 3.8783052, 3.757571, 4.011276, 3.253296, 4.283856, 3.920573, 4.384426, 3.7941198, 4.387314, 4.1248064, 3.0538712, 3.6169026, 4.2072625, 4.820688, 4.4379764, 4.5049515, 3.7611685, 3.997449, 4.0815454, 4.4109497, 3.7752483, 3.2753046, 4.7714853, 4.0888267, 3.6064842, 4.480009, 3.929186, 4.198281, 4.144606, 3.8768609, 3.602703, 3.1751118, 3.4090488, 4.966381, 4.4375753, 4.1630197, 4.873508, 4.4337163, 4.4527984, 4.716067, 4.0726833, 4.1441445, 3.7153332, 3.4898834, 4.667967, 4.674049, 4.136198, 4.194643, 3.7119343, 3.946497, 4.013459, 4.180768, 4.244407, 4.3371696, 4.3179965, 4.3496766, 4.4136167, 4.3953433, 4.4821477, 4.5301805]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[39.1304, 30.4348, 30.4348, 30.4348, 34.7826, 43.4783, 47.8261, 43.4783, 39.1304, 43.4783, 39.1304, 47.8261, 39.1304, 34.7826, 47.8261, 39.1304, 34.7826, 34.7826, 52.1739, 43.4783, 39.1304, 39.1304, 52.1739, 47.8261, 52.1739, 43.4783, 52.1739, 56.5217, 47.8261, 47.8261, 43.4783, 65.2174, 56.5217, 65.2174, 60.8696, 47.8261, 47.8261, 47.8261, 39.1304, 52.1739, 47.8261, 43.4783, 43.4783, 52.1739, 52.1739, 52.1739, 47.8261, 47.8261, 52.1739, 47.8261, 47.8261, 43.4783, 43.4783, 34.7826, 47.8261, 47.8261, 56.5217, 52.1739, 65.2174, 56.5217, 47.8261, 56.5217, 56.5217, 56.5217, 60.8696, 56.5217, 60.8696, 60.8696, 56.5217, 60.8696, 56.5217, 52.1739, 47.8261, 52.1739, 60.8696, 60.8696, 60.8696, 52.1739, 52.1739, 52.1739, 56.5217, 47.8261, 47.8261, 47.8261, 43.4783, 43.4783, 56.5217, 60.8696, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>model3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>79</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[3.7222993, 3.2004151, 2.8641024, 2.4308658, 1.8726891, 1.3270364, 0.91181415, 0.6566104, 0.5051076, 0.44508567, 0.36552253, 0.3115952, 0.27922416, 0.23403847, 0.1823109, 0.15523508, 0.11733667, 0.09129771, 0.09803609, 0.09127593, 0.110366695, 0.07856791, 0.053981345, 0.050354145, 0.048178546, 0.06535413, 0.03489649, 0.019223662, 0.028280377, 0.09752748, 0.14204498, 0.090410694, 0.10031364, 0.04839697, 0.04011706, 0.03152194, 0.025158906, 0.030058006, 0.013154269, 0.014033562, 0.044988927, 0.039594058, 0.03815921, 0.048812386, 0.10711858, 0.06616065, 0.04694649, 0.018764034, 0.01661099, 0.019800933, 0.021084942, 0.008489642, 0.004755098, 0.002867977, 0.0020658688, 0.0016772231, 0.0021610574, 0.0015806126, 0.001347404, 0.0012923636, 0.0012010625, 0.0010917118, 0.0009931615, 0.00092870975, 0.00089875754, 0.00086348923, 0.00078966055, 0.0007840768, 0.000711431, 0.00064518483, 0.0006299446, 0.0006283781, 0.00061711733, 0.0005417325, 0.00050575956, 0.000498172, 0.00044375865, 0.0004376296, 0.00040294585]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[27.6224, 33.017, 41.4585, 48.8012, 57.9421, 70.03, 78.4216, 83.2168, 86.4635, 87.3626, 89.4106, 90.5594, 91.7582, 92.8571, 94.006, 94.955, 96.3037, 97.003, 97.2028, 97.2028, 97.3027, 98.0519, 98.5015, 98.7512, 98.6014, 98.4515, 99.2507, 99.5504, 99.4006, 98.0519, 96.1538, 97.9021, 97.7522, 98.8012, 98.8511, 99.1508, 99.3007, 99.4505, 99.6503, 99.7502, 98.951, 98.8511, 99.4006, 99.1508, 97.3526, 98.5514, 98.9011, 99.5504, 99.6503, 99.4505, 99.7003, 99.9001, 99.9001, 99.95, 100.0, 100.0, 99.95, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[2.947258, 2.827172, 2.8758714, 3.1648197, 3.300419, 3.178241, 2.9344537, 2.8987732, 3.8440838, 3.6286898, 4.090943, 2.9602919, 3.4235382, 3.0055778, 3.2616313, 3.144544, 3.340843, 4.412599, 3.37201, 3.8064082, 3.9273803, 4.0368867, 3.6090126, 4.64407, 3.7124774, 4.327954, 3.4497185, 3.1968546, 4.2864327, 3.2416546, 2.9056208, 3.1775677, 4.079578, 3.7844017, 4.4439793, 3.7842398, 3.9950027, 3.9323838, 4.6299334, 4.634847, 2.838958, 2.7406867, 3.7380714, 3.7137911, 4.1445394, 3.8807945, 3.281927, 3.8713815, 3.5812778, 3.8831909, 3.6951015, 3.726764, 3.8129044, 3.8651161, 3.8494644, 3.8560994, 3.9523442, 3.964307, 3.9715173, 4.0002904, 4.010053, 4.0573564, 4.0732555, 4.0956817, 4.1156464, 4.1366897, 4.16581, 4.2167687, 4.254844, 4.2832675, 4.2946076, 4.2642827, 4.296746, 4.3459587, 4.3911557, 4.4166684, 4.4567876, 4.520634, 4.515284]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[34.7826, 34.7826, 30.4348, 26.087, 34.7826, 47.8261, 39.1304, 52.1739, 34.7826, 43.4783, 43.4783, 52.1739, 39.1304, 56.5217, 43.4783, 52.1739, 56.5217, 34.7826, 43.4783, 47.8261, 47.8261, 47.8261, 56.5217, 47.8261, 56.5217, 43.4783, 52.1739, 60.8696, 52.1739, 47.8261, 52.1739, 52.1739, 47.8261, 52.1739, 52.1739, 52.1739, 47.8261, 56.5217, 52.1739, 52.1739, 65.2174, 56.5217, 65.2174, 56.5217, 52.1739, 52.1739, 52.1739, 60.8696, 56.5217, 56.5217, 56.5217, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696, 60.8696]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>model3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>88</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[3.9439096, 3.2967095, 3.0930989, 2.8511786, 2.4742138, 1.9401764, 1.3960184, 0.9194486, 0.6295533, 0.45460397, 0.33421856, 0.27485478, 0.19476306, 0.16855887, 0.18183489, 0.112797394, 0.06350719, 0.05295435, 0.059821274, 0.058844313, 0.054829527, 0.060256995, 0.0798833, 0.055639762, 0.028185511, 0.05334593, 0.023694655, 0.016237287, 0.06490865, 0.026033795, 0.007475369, 0.0036441893, 0.003037792, 0.0025721584, 0.0023056753, 0.0020278692, 0.0018537827, 0.0017587555, 0.0015713735, 0.0014874729, 0.0013631114, 0.0012468068, 0.0011912447, 0.0011418259, 0.0013242256, 0.3869424, 0.25975144, 0.0684551, 0.018193502, 0.01539128, 0.013636339, 0.024028972, 0.028527182, 0.01025266, 0.0023730271, 0.001776675, 0.0015171305, 0.0013670612, 0.0011921973, 0.0010984348, 0.0011774643, 0.00092511065, 0.0008748627, 0.00082511426, 0.0007353634, 0.0006889193, 0.0006291944, 0.0006198896, 0.00058874954, 0.0005391413, 0.0004983292, 0.00047685896, 0.0004516006, 0.00041087743, 0.00038823072, 0.00036197127, 0.0003396001, 0.00031855868, 0.00030210958, 0.00028725306, 0.0002776449, 0.0002560259, 0.00023946063, 0.00022491893, 0.00021519892, 0.00019964282, 0.00019100566, 0.00017955115]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[25.7911, 28.0063, 31.3291, 41.3766, 46.8354, 55.0633, 69.7785, 79.2722, 84.4146, 87.9747, 89.8734, 91.9304, 94.6994, 95.0949, 94.8576, 97.1519, 98.2595, 98.6551, 98.8133, 98.5759, 98.5759, 98.3386, 98.3386, 98.7342, 99.288, 98.7342, 99.5253, 99.8418, 98.8924, 99.6044, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 91.8513, 94.3829, 98.6551, 99.7627, 99.7627, 99.5253, 99.4462, 99.1297, 99.8418, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[3.78602, 3.9680338, 3.8913333, 3.883095, 3.6028152, 3.475609, 3.4657242, 3.269893, 3.3833537, 3.5890028, 3.5302134, 3.5100899, 3.6703746, 3.8343801, 3.7379882, 3.8372526, 3.9327488, 4.0342655, 3.9879253, 3.831732, 3.9713132, 3.760899, 4.0194383, 3.961144, 4.2944784, 3.7559445, 4.118259, 4.178539, 4.182115, 4.369133, 4.3792944, 4.452776, 4.5225286, 4.549382, 4.5772853, 4.607468, 4.6231284, 4.687066, 4.69982, 4.721101, 4.7374773, 4.7653084, 4.7780433, 4.795576, 5.227648, 3.7962182, 4.0625606, 4.096698, 4.1548495, 4.2334323, 4.309956, 4.2465177, 4.07817, 4.337662, 4.4453564, 4.5111337, 4.558653, 4.6135077, 4.648216, 4.68357, 4.756757, 4.7781677, 4.7910247, 4.797415, 4.8132358, 4.8332834, 4.851042, 4.878273, 4.930394, 4.934549, 4.9552555, 4.9687204, 4.988737, 4.9904203, 5.011284, 5.0177884, 5.0353713, 5.0456605, 5.069769, 5.069466, 5.0781837, 5.0958686, 5.1155186, 5.122791, 5.141483, 5.1529512, 5.1740355, 5.191046]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[27.4882, 28.1991, 31.7536, 35.3081, 36.4929, 40.2844, 44.3128, 43.6019, 43.3649, 45.2607, 45.9716, 45.4976, 45.9716, 44.0758, 45.2607, 44.5498, 45.0237, 44.5498, 45.2607, 44.7867, 43.128, 46.2085, 44.7867, 44.5498, 45.7346, 44.5498, 46.2085, 47.3934, 44.3128, 44.3128, 44.5498, 44.5498, 44.7867, 44.5498, 44.7867, 44.7867, 45.0237, 45.2607, 44.7867, 45.0237, 45.0237, 45.0237, 44.7867, 45.0237, 41.7062, 43.128, 44.5498, 45.7346, 45.0237, 45.9716, 43.6019, 46.6825, 45.2607, 45.2607, 45.7346, 45.4976, 45.7346, 45.7346, 45.7346, 45.9716, 45.7346, 45.7346, 45.7346, 45.4976, 45.4976, 45.7346, 45.7346, 45.9716, 44.7867, 45.2607, 45.0237, 45.2607, 45.0237, 45.2607, 45.2607, 45.4976, 45.4976, 45.4976, 45.4976, 45.4976, 45.7346, 45.7346, 45.7346, 45.7346, 45.7346, 45.9716, 45.9716, 45.7346]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>model3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>200</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[3.7294033, 3.2323532, 2.9363751, 2.6200337, 2.250242, 1.8510327, 1.4470426, 1.0670965, 0.79596263, 0.65417594, 0.5251273, 0.45232236, 0.4255416, 0.4113068, 0.3916762, 0.34642863, 0.32433644, 0.30710813, 0.29532507, 0.29402176, 0.2946027, 0.27643594, 0.26521754, 0.26769063, 0.27133983, 0.24153376, 0.24347815, 0.2272642, 0.21478704, 0.21074781, 0.21206096, 0.22923468, 0.2198082, 0.21829544, 0.20232682, 0.20697294, 0.20552215, 0.20790827, 0.20814806, 0.21455078, 0.20481513, 0.18299606, 0.17312127, 0.18457317, 0.16302189, 0.1511595, 0.13669644, 0.15014753, 0.13803507, 0.124939464, 0.15562509, 0.12825882, 0.11645136, 0.09811974, 0.087977774, 0.08704086, 0.08860403, 0.112783976, 0.05282854, 0.04902541, 0.059249196, 0.05561763, 0.053804096, 0.07749257, 0.04990935, 0.023444204, 0.024820104, 0.018650405, 0.021297717, 0.022476057, 0.046140954, 0.033038195, 0.038542546, 0.03188687, 0.030294081, 0.017365552, 0.025348036, 0.020670932, 0.052722465, 0.021698287, 0.02066009, 0.030389449, 0.024440054, 0.007725764, 0.025911208, 0.15746096, 0.32929048, 0.10936914, 0.017548993, 0.0056280056, 0.0030337146, 0.0015701199, 0.003688961, 0.008506622, 0.030482162, 0.04272259, 0.029538322, 0.017065976, 0.017792169, 0.013595475, 0.003991863, 0.0009621859, 0.0006579608, 0.00056292425, 0.0004942829, 0.00038621962, 0.00036221588, 0.00031594728, 0.00028497164, 0.00025253496, 0.00023192792, 0.00020322851, 0.00018555146, 0.00017526353, 0.00015766686, 0.000184297, 0.00014584903, 0.0001275118, 0.000109877816, 0.00010248535, 9.022352e-05, 8.439649e-05, 7.77389e-05, 6.730236e-05, 6.1252824e-05, 5.29719e-05, 0.00012317295, 0.24739172, 0.043661453, 0.014371522, 0.016806306, 0.01000335, 0.008732151, 0.00094355753, 0.0007760295, 0.0005192187, 0.00045781262, 0.0004002349, 0.00034583537, 0.00028960075, 0.00026282092, 0.00028642223, 0.00021045584, 0.0007165225, 0.07328778, 0.12261729, 0.03988829, 0.011079577, 0.0074563804, 0.0040777745, 0.0008865639, 0.005093539, 0.00065939326, 0.00046425167, 0.00040593676, 0.00036422725, 0.00029318416, 0.00026080004, 0.00023067536, 0.00019855278, 0.00019715117, 0.00016668724, 0.00015134815, 0.00015993988, 0.00012230089, 0.00011515618, 9.972595e-05, 9.281886e-05, 8.067983e-05, 8.1235805e-05, 7.436512e-05, 6.725871e-05, 5.6483223e-05, 5.4887223e-05, 4.8776834e-05, 4.387449e-05, 4.3414264e-05, 3.5940866e-05, 3.3353102e-05, 2.9658237e-05, 2.8639965e-05, 2.5471669e-05, 2.2149712e-05, 2.4774508e-05, 2.4018827e-05, 1.821386e-05, 1.6618664e-05, 1.4625001e-05, 1.3226289e-05, 1.15590055e-05, 1.0719339e-05, 9.868829e-06, 8.660905e-06, 7.6835995e-06, 7.20714e-06, 6.4548503e-06, 5.7721995e-06, 5.1254638e-06, 4.898571e-06, 4.26183e-06]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[26.6576, 31.5622, 38.8283, 45.4133, 51.0899, 57.7203, 65.3043, 73.7965, 79.0645, 82.3342, 85.1953, 86.1035, 86.4214, 87.2843, 86.5577, 88.2834, 89.1008, 89.0554, 89.8728, 89.782, 89.8274, 90.2361, 90.9628, 90.5995, 90.1453, 91.0082, 90.4632, 91.4169, 91.3715, 91.5077, 91.5531, 91.3261, 91.7802, 91.6894, 91.9619, 91.2352, 91.7802, 91.5985, 91.7348, 91.8256, 92.4614, 92.5068, 92.7339, 92.5068, 93.4605, 93.8238, 94.1417, 94.1871, 94.7321, 94.8683, 93.8692, 95.2316, 95.6857, 96.5032, 96.6848, 96.6848, 96.7302, 96.5486, 97.9564, 98.2289, 98.0018, 98.3197, 98.1835, 97.911, 98.3197, 99.3642, 99.3642, 99.5005, 99.5459, 99.4096, 98.9555, 99.228, 99.2734, 99.228, 99.3188, 99.5913, 99.3188, 99.1826, 98.3651, 99.455, 99.3188, 99.455, 99.455, 99.8183, 99.3188, 96.3215, 91.5531, 97.1844, 99.5005, 99.9546, 99.9546, 100.0, 99.9092, 99.8183, 99.3188, 98.9555, 99.228, 99.7275, 99.7729, 99.8638, 99.9546, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 93.9146, 99.0009, 99.6367, 99.5459, 99.8638, 99.8638, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 98.2743, 97.0027, 98.5922, 99.8638, 99.8638, 99.9546, 100.0, 99.9092, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[3.7418213, 3.8786643, 3.6906128, 3.4701798, 3.6529748, 3.4953396, 3.2890637, 3.2854326, 3.198312, 3.4674597, 3.132602, 3.4031532, 3.2835257, 3.4426072, 3.3378298, 3.586385, 3.4587328, 3.4797204, 3.6843731, 3.5785599, 3.3866014, 3.4875116, 3.0918608, 3.4784307, 3.2471943, 3.3998735, 3.4798462, 3.4090817, 3.4262187, 3.7156725, 3.7358978, 3.6311038, 4.0033875, 3.6867201, 4.1260233, 4.0169835, 4.0133805, 4.098884, 3.9143152, 3.5684903, 4.0600066, 3.7675421, 3.954069, 3.540992, 3.9640362, 4.258014, 4.07237, 3.893453, 3.6313078, 3.5836022, 3.899285, 3.947467, 3.7566955, 4.158077, 3.8005912, 4.070724, 3.9597256, 3.7439754, 3.7094994, 3.7807178, 3.5825784, 4.202804, 4.417824, 4.112135, 4.0319753, 4.3643517, 4.2561913, 4.25856, 4.2633166, 4.293694, 4.1882744, 4.32436, 4.271539, 4.3496003, 4.4178767, 4.5329056, 4.7904162, 4.489164, 4.262611, 4.285753, 4.5400662, 4.320627, 3.77682, 4.1853, 3.966705, 4.7255516, 4.7415147, 4.6707287, 4.7051287, 4.6142297, 4.690763, 4.654983, 4.528869, 4.5286365, 4.192184, 4.5208144, 4.3679547, 4.29968, 4.555945, 4.542707, 4.4814816, 4.5818787, 4.5748754, 4.6008086, 4.652502, 4.651621, 4.699569, 4.716234, 4.7518125, 4.73099, 4.734785, 4.7297864, 4.713539, 4.704619, 4.7274847, 4.8660827, 4.780926, 4.7388835, 4.676975, 4.738556, 4.7722154, 4.7477593, 4.7015367, 4.71843, 4.7372346, 4.75913, 4.4345856, 4.380713, 4.2779737, 4.322218, 4.3360834, 4.3925548, 4.4162836, 4.373092, 4.3067846, 4.2907405, 4.2669888, 4.2919908, 4.3223467, 4.2962418, 4.2917953, 4.3134236, 4.3371186, 4.254022, 4.3831573, 4.6087403, 4.8930044, 4.8833766, 4.8709736, 4.8395762, 4.878737, 4.7855973, 4.776886, 4.8048177, 4.8474703, 4.8581176, 4.877558, 4.8976874, 4.8998947, 4.936014, 4.944842, 4.971218, 4.982326, 5.018044, 5.0234976, 5.027338, 5.0352063, 5.0456405, 5.0552173, 5.07138, 5.10049, 5.1013165, 5.096897, 5.1071787, 5.125479, 5.1367755, 5.160937, 5.171005, 5.2050004, 5.2345386, 5.2494416, 5.3016143, 5.3274217, 5.102354, 5.3042808, 5.3343544, 5.3404827, 5.369904, 5.3873773, 5.408518, 5.4400754, 5.4560914, 5.481979, 5.538117, 5.559468, 5.6201167, 5.6245155, 5.627706, 5.6617436, 5.6709886]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[26.087, 21.7391, 39.1304, 43.4783, 39.1304, 52.1739, 39.1304, 43.4783, 47.8261, 39.1304, 47.8261, 34.7826, 39.1304, 47.8261, 56.5217, 47.8261, 47.8261, 47.8261, 47.8261, 52.1739, 43.4783, 60.8696, 56.5217, 47.8261, 56.5217, 43.4783, 52.1739, 56.5217, 52.1739, 52.1739, 47.8261, 47.8261, 52.1739, 52.1739, 43.4783, 52.1739, 39.1304, 39.1304, 47.8261, 47.8261, 60.8696, 56.5217, 56.5217, 52.1739, 56.5217, 56.5217, 52.1739, 56.5217, 52.1739, 56.5217, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 56.5217, 52.1739, 56.5217, 52.1739, 56.5217, 47.8261, 43.4783, 52.1739, 47.8261, 52.1739, 52.1739, 56.5217, 52.1739, 56.5217, 52.1739, 52.1739, 60.8696, 52.1739, 52.1739, 47.8261, 52.1739, 47.8261, 52.1739, 43.4783, 47.8261, 47.8261, 60.8696, 60.8696, 60.8696, 60.8696, 39.1304, 52.1739, 47.8261, 56.5217, 56.5217, 56.5217, 56.5217, 60.8696, 60.8696, 52.1739, 52.1739, 52.1739, 60.8696, 47.8261, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 56.5217, 52.1739, 56.5217, 56.5217, 60.8696, 52.1739, 52.1739, 52.1739, 47.8261, 47.8261, 52.1739, 52.1739, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 60.8696, 60.8696, 60.8696, 56.5217, 52.1739, 56.5217, 47.8261, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 52.1739, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217, 56.5217]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
